--- a/output/Ridge_backtest_forecasting.xlsx
+++ b/output/Ridge_backtest_forecasting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Real ES</t>
   </si>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t>BBVA.MC</t>
+  </si>
+  <si>
+    <t>SAB.MC</t>
+  </si>
+  <si>
+    <t>^IBEX</t>
+  </si>
+  <si>
+    <t>BBVAE.MC</t>
+  </si>
+  <si>
+    <t>XTC5.MI</t>
+  </si>
+  <si>
+    <t>EURUSD=X</t>
   </si>
 </sst>
 </file>
@@ -424,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -479,22 +494,22 @@
         <v>14</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>-0.03261981095941505</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>-0.03044835369347884</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>-0.03261981095941505</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -509,16 +524,16 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
+        <v>-0.03044835369347884</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
+        <v>-0.03261981095941505</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -526,10 +541,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>-0.01374801806858702</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -558,13 +573,248 @@
       <c r="L3" s="2">
         <v>0</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>0</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-0.01715961000595024</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-0.01312731726105208</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-0.01427457621150688</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>-0.01427457621150688</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-0.01452042810307633</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-0.01452042810307633</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-0.01452042810307633</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-0.01452042810307633</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-0.01452042810307633</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>-0.01452042810307633</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>-0.01452042810307633</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-0.003598023824621103</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>0</v>
       </c>
     </row>

--- a/output/Ridge_backtest_forecasting.xlsx
+++ b/output/Ridge_backtest_forecasting.xlsx
@@ -14,24 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Real ES</t>
   </si>
   <si>
     <t>Real Excepciones</t>
-  </si>
-  <si>
-    <t>PERCEPTRON 1d ES</t>
-  </si>
-  <si>
-    <t>PERCEPTRON 1d Excepciones</t>
-  </si>
-  <si>
-    <t>PERCEPTRON 10d ES</t>
-  </si>
-  <si>
-    <t>PERCEPTRON 10d Excepciones</t>
   </si>
   <si>
     <t>LSTM 1d ES</t>
@@ -40,43 +28,7 @@
     <t>LSTM 1d Excepciones</t>
   </si>
   <si>
-    <t>LSTM 10d ES</t>
-  </si>
-  <si>
-    <t>LSTM 10d Excepciones</t>
-  </si>
-  <si>
-    <t>RANDOM_FOREST 1d ES</t>
-  </si>
-  <si>
-    <t>RANDOM_FOREST 1d Excepciones</t>
-  </si>
-  <si>
-    <t>RANDOM_FOREST 10d ES</t>
-  </si>
-  <si>
-    <t>RANDOM_FOREST 10d Excepciones</t>
-  </si>
-  <si>
     <t>SAN.MC</t>
-  </si>
-  <si>
-    <t>BBVA.MC</t>
-  </si>
-  <si>
-    <t>SAB.MC</t>
-  </si>
-  <si>
-    <t>^IBEX</t>
-  </si>
-  <si>
-    <t>BBVAE.MC</t>
-  </si>
-  <si>
-    <t>XTC5.MI</t>
-  </si>
-  <si>
-    <t>EURUSD=X</t>
   </si>
 </sst>
 </file>
@@ -439,13 +391,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -458,364 +410,22 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B2" s="2">
-        <v>-0.03261981095941505</v>
+        <v>-0.04155960417564891</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.03044835369347884</v>
+        <v>-0.04776906109239125</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-0.03261981095941505</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>-0.03044835369347884</v>
-      </c>
-      <c r="M2" s="3">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2">
-        <v>-0.03261981095941505</v>
-      </c>
-      <c r="O2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2">
-        <v>-0.01374801806858702</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2">
-        <v>-0.01715961000595024</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2">
-        <v>-0.01312731726105208</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-0.01427457621150688</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-0.01427457621150688</v>
-      </c>
-      <c r="O6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-0.01452042810307633</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-0.01452042810307633</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-0.01452042810307633</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>-0.01452042810307633</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>-0.01452042810307633</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>-0.01452042810307633</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
-        <v>-0.01452042810307633</v>
-      </c>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-0.003598023824621103</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/Ridge_backtest_forecasting.xlsx
+++ b/output/Ridge_backtest_forecasting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Real ES</t>
   </si>
@@ -22,13 +22,85 @@
     <t>Real Excepciones</t>
   </si>
   <si>
+    <t>EWMA 1d ES</t>
+  </si>
+  <si>
+    <t>EWMA 1d Excepciones</t>
+  </si>
+  <si>
+    <t>EWMA 10d ES</t>
+  </si>
+  <si>
+    <t>EWMA 10d Excepciones</t>
+  </si>
+  <si>
+    <t>GJR_GARCH 1d ES</t>
+  </si>
+  <si>
+    <t>GJR_GARCH 1d Excepciones</t>
+  </si>
+  <si>
+    <t>GJR_GARCH 10d ES</t>
+  </si>
+  <si>
+    <t>GJR_GARCH 10d Excepciones</t>
+  </si>
+  <si>
+    <t>PERCEPTRON 1d ES</t>
+  </si>
+  <si>
+    <t>PERCEPTRON 1d Excepciones</t>
+  </si>
+  <si>
+    <t>PERCEPTRON 10d ES</t>
+  </si>
+  <si>
+    <t>PERCEPTRON 10d Excepciones</t>
+  </si>
+  <si>
     <t>LSTM 1d ES</t>
   </si>
   <si>
     <t>LSTM 1d Excepciones</t>
   </si>
   <si>
+    <t>LSTM 10d ES</t>
+  </si>
+  <si>
+    <t>LSTM 10d Excepciones</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST 1d ES</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST 1d Excepciones</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST 10d ES</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST 10d Excepciones</t>
+  </si>
+  <si>
     <t>SAN.MC</t>
+  </si>
+  <si>
+    <t>BBVA.MC</t>
+  </si>
+  <si>
+    <t>SAB.MC</t>
+  </si>
+  <si>
+    <t>^IBEX</t>
+  </si>
+  <si>
+    <t>BBVAE.MC</t>
+  </si>
+  <si>
+    <t>XTC5.MI</t>
+  </si>
+  <si>
+    <t>EURUSD=X</t>
   </si>
 </sst>
 </file>
@@ -391,13 +463,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:23">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -410,22 +482,100 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2">
-        <v>-0.04155960417564891</v>
+        <v>-0.03567718505303555</v>
       </c>
       <c r="C2" s="3">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-0.04776906109239125</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/output/Ridge_backtest_forecasting.xlsx
+++ b/output/Ridge_backtest_forecasting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>Real ES</t>
   </si>
@@ -22,6 +22,18 @@
     <t>Real Excepciones</t>
   </si>
   <si>
+    <t>STD 1d ES</t>
+  </si>
+  <si>
+    <t>STD 1d Excepciones</t>
+  </si>
+  <si>
+    <t>STD 10d ES</t>
+  </si>
+  <si>
+    <t>STD 10d Excepciones</t>
+  </si>
+  <si>
     <t>EWMA 1d ES</t>
   </si>
   <si>
@@ -46,40 +58,112 @@
     <t>GJR_GARCH 10d Excepciones</t>
   </si>
   <si>
-    <t>PERCEPTRON 1d ES</t>
-  </si>
-  <si>
-    <t>PERCEPTRON 1d Excepciones</t>
-  </si>
-  <si>
-    <t>PERCEPTRON 10d ES</t>
-  </si>
-  <si>
-    <t>PERCEPTRON 10d Excepciones</t>
-  </si>
-  <si>
-    <t>LSTM 1d ES</t>
-  </si>
-  <si>
-    <t>LSTM 1d Excepciones</t>
-  </si>
-  <si>
-    <t>LSTM 10d ES</t>
-  </si>
-  <si>
-    <t>LSTM 10d Excepciones</t>
-  </si>
-  <si>
-    <t>RANDOM_FOREST 1d ES</t>
-  </si>
-  <si>
-    <t>RANDOM_FOREST 1d Excepciones</t>
-  </si>
-  <si>
-    <t>RANDOM_FOREST 10d ES</t>
-  </si>
-  <si>
-    <t>RANDOM_FOREST 10d Excepciones</t>
+    <t>PERCEPTRON_STD 1d ES</t>
+  </si>
+  <si>
+    <t>PERCEPTRON_STD 1d Excepciones</t>
+  </si>
+  <si>
+    <t>PERCEPTRON_STD 10d ES</t>
+  </si>
+  <si>
+    <t>PERCEPTRON_STD 10d Excepciones</t>
+  </si>
+  <si>
+    <t>LSTM_STD 1d ES</t>
+  </si>
+  <si>
+    <t>LSTM_STD 1d Excepciones</t>
+  </si>
+  <si>
+    <t>LSTM_STD 10d ES</t>
+  </si>
+  <si>
+    <t>LSTM_STD 10d Excepciones</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST_STD 1d ES</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST_STD 1d Excepciones</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST_STD 10d ES</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST_STD 10d Excepciones</t>
+  </si>
+  <si>
+    <t>PERCEPTRON_EWMA 1d ES</t>
+  </si>
+  <si>
+    <t>PERCEPTRON_EWMA 1d Excepciones</t>
+  </si>
+  <si>
+    <t>PERCEPTRON_EWMA 10d ES</t>
+  </si>
+  <si>
+    <t>PERCEPTRON_EWMA 10d Excepciones</t>
+  </si>
+  <si>
+    <t>LSTM_EWMA 1d ES</t>
+  </si>
+  <si>
+    <t>LSTM_EWMA 1d Excepciones</t>
+  </si>
+  <si>
+    <t>LSTM_EWMA 10d ES</t>
+  </si>
+  <si>
+    <t>LSTM_EWMA 10d Excepciones</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST_EWMA 1d ES</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST_EWMA 1d Excepciones</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST_EWMA 10d ES</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST_EWMA 10d Excepciones</t>
+  </si>
+  <si>
+    <t>PERCEPTRON_GJR_GARCH 1d ES</t>
+  </si>
+  <si>
+    <t>PERCEPTRON_GJR_GARCH 1d Excepciones</t>
+  </si>
+  <si>
+    <t>PERCEPTRON_GJR_GARCH 10d ES</t>
+  </si>
+  <si>
+    <t>PERCEPTRON_GJR_GARCH 10d Excepciones</t>
+  </si>
+  <si>
+    <t>LSTM_GJR_GARCH 1d ES</t>
+  </si>
+  <si>
+    <t>LSTM_GJR_GARCH 1d Excepciones</t>
+  </si>
+  <si>
+    <t>LSTM_GJR_GARCH 10d ES</t>
+  </si>
+  <si>
+    <t>LSTM_GJR_GARCH 10d Excepciones</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST_GJR_GARCH 1d ES</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST_GJR_GARCH 1d Excepciones</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST_GJR_GARCH 10d ES</t>
+  </si>
+  <si>
+    <t>RANDOM_FOREST_GJR_GARCH 10d Excepciones</t>
   </si>
   <si>
     <t>SAN.MC</t>
@@ -463,13 +547,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:51">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -536,46 +620,130 @@
       <c r="W1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:51">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2">
-        <v>-0.03567718505303555</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:51">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:51">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:51">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:51">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:51">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:51">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/output/Ridge_backtest_forecasting.xlsx
+++ b/output/Ridge_backtest_forecasting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>Real ES</t>
   </si>
@@ -167,33 +167,12 @@
   </si>
   <si>
     <t>SAN.MC</t>
-  </si>
-  <si>
-    <t>BBVA.MC</t>
-  </si>
-  <si>
-    <t>SAB.MC</t>
-  </si>
-  <si>
-    <t>^IBEX</t>
-  </si>
-  <si>
-    <t>BBVAE.MC</t>
-  </si>
-  <si>
-    <t>XTC5.MI</t>
-  </si>
-  <si>
-    <t>EURUSD=X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00%"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -246,13 +225,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,42 +686,6 @@
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51">
-      <c r="A4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51">
-      <c r="A5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51">
-      <c r="A6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51">
-      <c r="A7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
